--- a/Mifos Automation Excels/Client/2580-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DATE-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2580-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DATE-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="816" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="816" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="42">
   <si>
     <t>Interest</t>
   </si>
@@ -124,12 +124,6 @@
     <t>$ 75</t>
   </si>
   <si>
-    <t>$ 854.16</t>
-  </si>
-  <si>
-    <t>$ 20.83</t>
-  </si>
-  <si>
     <t>system</t>
   </si>
   <si>
@@ -139,17 +133,26 @@
     <t>L27</t>
   </si>
   <si>
-    <t>$ 200</t>
-  </si>
-  <si>
     <t>Accrual</t>
+  </si>
+  <si>
+    <t>$ 558.33</t>
+  </si>
+  <si>
+    <t>$ 25</t>
+  </si>
+  <si>
+    <t>$ 858.33</t>
+  </si>
+  <si>
+    <t>L3711</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +173,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -219,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -258,15 +267,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,7 +778,7 @@
         <v>42005</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4">
         <v>558.33000000000004</v>
@@ -836,7 +845,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,10 +951,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:I7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +970,7 @@
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -990,7 +999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>151</v>
       </c>
@@ -1017,7 +1026,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>152</v>
       </c>
@@ -1044,7 +1053,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>154</v>
       </c>
@@ -1070,20 +1079,6 @@
         <v>32</v>
       </c>
       <c r="I4" s="15"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1095,7 +1090,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,13 +1210,13 @@
     <col min="4" max="4" width="14.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -1250,102 +1245,85 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>151</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>6923</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="13">
         <v>42064</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>152</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="G2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>6924</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="13">
         <v>42064</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="D3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>154</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="G3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>6925</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="13">
         <v>42064</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="H4" s="22" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1354,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,31 +1351,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1412,21 +1390,20 @@
         <v>42050</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -1439,32 +1416,20 @@
         <v>42050</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="I3" s="19" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/2580-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DATE-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2580-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DATE-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="816" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="816" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -953,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,12 +1018,12 @@
       <c r="F2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>17</v>
+      <c r="G2" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
-        <v>31</v>
+      <c r="I2" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1045,12 +1045,12 @@
       <c r="F3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>20</v>
+      <c r="G3" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="H3" s="15"/>
-      <c r="I3" s="16" t="s">
-        <v>33</v>
+      <c r="I3" s="19" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
       <c r="F4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="19" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="16" t="s">
@@ -1198,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
